--- a/data/Leaf_dmg.xlsx
+++ b/data/Leaf_dmg.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://irtacat-my.sharepoint.com/personal/alejandro_munoz_irta_cat/Documents/Documentos/Exclusion-Lisso-Analysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{977A9063-C6E2-4861-9066-0CA6B4D091F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{977A9063-C6E2-4861-9066-0CA6B4D091F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5DC5AD9-8C4B-4530-9B26-B263A3317F54}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{47F19196-DA6E-49C8-93E1-4DBA9AC9B6CC}"/>
+    <workbookView xWindow="28680" yWindow="-7515" windowWidth="29040" windowHeight="15720" xr2:uid="{47F19196-DA6E-49C8-93E1-4DBA9AC9B6CC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Daño foliar" sheetId="1" r:id="rId1"/>
+    <sheet name="Leaf_dmg" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,27 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="14">
   <si>
-    <t>Fecha</t>
-  </si>
-  <si>
-    <t>ID Parcela</t>
-  </si>
-  <si>
-    <t>Tratamiento</t>
-  </si>
-  <si>
-    <t>Repeticion</t>
-  </si>
-  <si>
-    <t>Hojas afectadas de 10 totales</t>
-  </si>
-  <si>
-    <t>Nº marcas en 5 hojas</t>
-  </si>
-  <si>
-    <t>Observaciones</t>
-  </si>
-  <si>
     <t>FE</t>
   </si>
   <si>
@@ -78,6 +57,27 @@
   </si>
   <si>
     <t>Estadio fenologico: 28 (8 tillers) en toda esta fecha</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Field</t>
+  </si>
+  <si>
+    <t>Treatment</t>
+  </si>
+  <si>
+    <t>Repeat</t>
+  </si>
+  <si>
+    <t>Leaves_dmg_10leaves</t>
+  </si>
+  <si>
+    <t>Marks_5leaves</t>
+  </si>
+  <si>
+    <t>Observations</t>
   </si>
 </sst>
 </file>
@@ -272,13 +272,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D2410344-209E-405C-851B-1E9081D590A8}" name="Tabla3" displayName="Tabla3" ref="A1:G481" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="A1:G481" xr:uid="{F99C7154-DB10-4B6C-87D3-B02BB73DF85F}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{7D037671-983A-4BAB-9F6D-CD1794433310}" name="Fecha" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{6191FDF0-EFAE-4E53-983E-C2D9A0F23EC6}" name="ID Parcela" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{4479A068-2D0F-40BD-9B48-87BAFD97F595}" name="Tratamiento" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{C2D8EDEE-7AE6-481B-AB0A-82362D6813E3}" name="Repeticion" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{D2B2ABA1-9FFD-41B8-AE9E-7DD18955C382}" name="Hojas afectadas de 10 totales" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{F9332C32-39CA-4B2D-B10D-2F630B5F9B30}" name="Nº marcas en 5 hojas" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{2CE81DEA-0516-445A-BB76-BBBF6303A104}" name="Observaciones" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{7D037671-983A-4BAB-9F6D-CD1794433310}" name="Date" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{6191FDF0-EFAE-4E53-983E-C2D9A0F23EC6}" name="Field" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{4479A068-2D0F-40BD-9B48-87BAFD97F595}" name="Treatment" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{C2D8EDEE-7AE6-481B-AB0A-82362D6813E3}" name="Repeat" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{D2B2ABA1-9FFD-41B8-AE9E-7DD18955C382}" name="Leaves_dmg_10leaves" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{F9332C32-39CA-4B2D-B10D-2F630B5F9B30}" name="Marks_5leaves" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{2CE81DEA-0516-445A-BB76-BBBF6303A104}" name="Observations" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -583,40 +583,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEC83C57-A282-4010-8AD3-5322ADC43A32}">
   <dimension ref="A1:G481"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.81640625" customWidth="1"/>
+    <col min="3" max="3" width="12.81640625" customWidth="1"/>
+    <col min="4" max="4" width="9.90625" customWidth="1"/>
+    <col min="5" max="5" width="23.453125" customWidth="1"/>
+    <col min="6" max="6" width="18.08984375" customWidth="1"/>
     <col min="7" max="7" width="77" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -627,7 +629,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -648,7 +650,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
@@ -669,7 +671,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
@@ -690,7 +692,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1">
         <v>4</v>
@@ -711,7 +713,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1">
         <v>5</v>
@@ -732,7 +734,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1">
         <v>6</v>
@@ -753,7 +755,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
@@ -774,7 +776,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D9" s="1">
         <v>2</v>
@@ -795,7 +797,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D10" s="1">
         <v>3</v>
@@ -816,7 +818,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D11" s="1">
         <v>4</v>
@@ -837,7 +839,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D12" s="1">
         <v>5</v>
@@ -858,7 +860,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D13" s="1">
         <v>6</v>
@@ -879,7 +881,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
@@ -900,7 +902,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D15" s="1">
         <v>2</v>
@@ -921,7 +923,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D16" s="1">
         <v>3</v>
@@ -942,7 +944,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D17" s="1">
         <v>4</v>
@@ -963,7 +965,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D18" s="1">
         <v>5</v>
@@ -984,7 +986,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D19" s="1">
         <v>6</v>
@@ -1005,7 +1007,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D20" s="1">
         <v>1</v>
@@ -1026,7 +1028,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D21" s="1">
         <v>2</v>
@@ -1047,7 +1049,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D22" s="1">
         <v>3</v>
@@ -1068,7 +1070,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D23" s="1">
         <v>4</v>
@@ -1089,7 +1091,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D24" s="1">
         <v>5</v>
@@ -1110,7 +1112,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D25" s="1">
         <v>6</v>
@@ -1131,7 +1133,7 @@
         <v>2</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D26" s="1">
         <v>1</v>
@@ -1152,7 +1154,7 @@
         <v>2</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D27" s="1">
         <v>2</v>
@@ -1173,7 +1175,7 @@
         <v>2</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D28" s="1">
         <v>3</v>
@@ -1194,7 +1196,7 @@
         <v>2</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D29" s="1">
         <v>4</v>
@@ -1215,7 +1217,7 @@
         <v>2</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D30" s="1">
         <v>5</v>
@@ -1236,7 +1238,7 @@
         <v>2</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D31" s="1">
         <v>6</v>
@@ -1257,7 +1259,7 @@
         <v>2</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D32" s="1">
         <v>1</v>
@@ -1278,7 +1280,7 @@
         <v>2</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D33" s="1">
         <v>2</v>
@@ -1299,7 +1301,7 @@
         <v>2</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D34" s="1">
         <v>3</v>
@@ -1320,7 +1322,7 @@
         <v>2</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D35" s="1">
         <v>4</v>
@@ -1341,7 +1343,7 @@
         <v>2</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D36" s="1">
         <v>5</v>
@@ -1362,7 +1364,7 @@
         <v>2</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D37" s="1">
         <v>6</v>
@@ -1383,7 +1385,7 @@
         <v>2</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D38" s="1">
         <v>1</v>
@@ -1404,7 +1406,7 @@
         <v>2</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D39" s="1">
         <v>2</v>
@@ -1425,7 +1427,7 @@
         <v>2</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D40" s="1">
         <v>3</v>
@@ -1446,7 +1448,7 @@
         <v>2</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D41" s="1">
         <v>4</v>
@@ -1467,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D42" s="1">
         <v>5</v>
@@ -1488,7 +1490,7 @@
         <v>2</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D43" s="1">
         <v>6</v>
@@ -1509,7 +1511,7 @@
         <v>2</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D44" s="1">
         <v>1</v>
@@ -1530,7 +1532,7 @@
         <v>2</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D45" s="1">
         <v>2</v>
@@ -1551,7 +1553,7 @@
         <v>2</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D46" s="1">
         <v>3</v>
@@ -1572,7 +1574,7 @@
         <v>2</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D47" s="1">
         <v>4</v>
@@ -1593,7 +1595,7 @@
         <v>2</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D48" s="1">
         <v>5</v>
@@ -1614,7 +1616,7 @@
         <v>2</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D49" s="1">
         <v>6</v>
@@ -1635,7 +1637,7 @@
         <v>3</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D50" s="1">
         <v>1</v>
@@ -1656,7 +1658,7 @@
         <v>3</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D51" s="1">
         <v>2</v>
@@ -1677,7 +1679,7 @@
         <v>3</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D52" s="1">
         <v>3</v>
@@ -1698,7 +1700,7 @@
         <v>3</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D53" s="1">
         <v>4</v>
@@ -1719,7 +1721,7 @@
         <v>3</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D54" s="1">
         <v>5</v>
@@ -1740,7 +1742,7 @@
         <v>3</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D55" s="1">
         <v>6</v>
@@ -1761,7 +1763,7 @@
         <v>3</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D56" s="1">
         <v>1</v>
@@ -1782,7 +1784,7 @@
         <v>3</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D57" s="1">
         <v>2</v>
@@ -1803,7 +1805,7 @@
         <v>3</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D58" s="1">
         <v>3</v>
@@ -1824,7 +1826,7 @@
         <v>3</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D59" s="1">
         <v>4</v>
@@ -1845,7 +1847,7 @@
         <v>3</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D60" s="1">
         <v>5</v>
@@ -1866,7 +1868,7 @@
         <v>3</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D61" s="1">
         <v>6</v>
@@ -1887,7 +1889,7 @@
         <v>3</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D62" s="1">
         <v>1</v>
@@ -1908,7 +1910,7 @@
         <v>3</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D63" s="1">
         <v>2</v>
@@ -1929,7 +1931,7 @@
         <v>3</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D64" s="1">
         <v>3</v>
@@ -1950,7 +1952,7 @@
         <v>3</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D65" s="1">
         <v>4</v>
@@ -1971,7 +1973,7 @@
         <v>3</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D66" s="1">
         <v>5</v>
@@ -1992,7 +1994,7 @@
         <v>3</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D67" s="1">
         <v>6</v>
@@ -2013,7 +2015,7 @@
         <v>3</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D68" s="1">
         <v>1</v>
@@ -2034,7 +2036,7 @@
         <v>3</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D69" s="1">
         <v>2</v>
@@ -2055,7 +2057,7 @@
         <v>3</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D70" s="1">
         <v>3</v>
@@ -2076,7 +2078,7 @@
         <v>3</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D71" s="1">
         <v>4</v>
@@ -2097,7 +2099,7 @@
         <v>3</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D72" s="1">
         <v>5</v>
@@ -2118,7 +2120,7 @@
         <v>3</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D73" s="1">
         <v>6</v>
@@ -2139,7 +2141,7 @@
         <v>4</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D74" s="1">
         <v>1</v>
@@ -2160,7 +2162,7 @@
         <v>4</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D75" s="1">
         <v>2</v>
@@ -2181,7 +2183,7 @@
         <v>4</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D76" s="1">
         <v>3</v>
@@ -2202,7 +2204,7 @@
         <v>4</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D77" s="1">
         <v>4</v>
@@ -2223,7 +2225,7 @@
         <v>4</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D78" s="1">
         <v>5</v>
@@ -2244,7 +2246,7 @@
         <v>4</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D79" s="1">
         <v>6</v>
@@ -2265,7 +2267,7 @@
         <v>4</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D80" s="1">
         <v>1</v>
@@ -2286,7 +2288,7 @@
         <v>4</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D81" s="1">
         <v>2</v>
@@ -2307,7 +2309,7 @@
         <v>4</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D82" s="1">
         <v>3</v>
@@ -2328,7 +2330,7 @@
         <v>4</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D83" s="1">
         <v>4</v>
@@ -2349,7 +2351,7 @@
         <v>4</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D84" s="1">
         <v>5</v>
@@ -2370,7 +2372,7 @@
         <v>4</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D85" s="1">
         <v>6</v>
@@ -2391,7 +2393,7 @@
         <v>4</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D86" s="1">
         <v>1</v>
@@ -2412,7 +2414,7 @@
         <v>4</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D87" s="1">
         <v>2</v>
@@ -2433,7 +2435,7 @@
         <v>4</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D88" s="1">
         <v>3</v>
@@ -2454,7 +2456,7 @@
         <v>4</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D89" s="1">
         <v>4</v>
@@ -2475,7 +2477,7 @@
         <v>4</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D90" s="1">
         <v>5</v>
@@ -2496,7 +2498,7 @@
         <v>4</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D91" s="1">
         <v>6</v>
@@ -2517,7 +2519,7 @@
         <v>4</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D92" s="1">
         <v>1</v>
@@ -2538,7 +2540,7 @@
         <v>4</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D93" s="1">
         <v>2</v>
@@ -2559,7 +2561,7 @@
         <v>4</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D94" s="1">
         <v>3</v>
@@ -2580,7 +2582,7 @@
         <v>4</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D95" s="1">
         <v>4</v>
@@ -2601,7 +2603,7 @@
         <v>4</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D96" s="1">
         <v>5</v>
@@ -2622,7 +2624,7 @@
         <v>4</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D97" s="1">
         <v>6</v>
@@ -2643,7 +2645,7 @@
         <v>5</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D98" s="1">
         <v>1</v>
@@ -2664,7 +2666,7 @@
         <v>5</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D99" s="1">
         <v>2</v>
@@ -2685,7 +2687,7 @@
         <v>5</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D100" s="1">
         <v>3</v>
@@ -2706,7 +2708,7 @@
         <v>5</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D101" s="1">
         <v>4</v>
@@ -2727,7 +2729,7 @@
         <v>5</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D102" s="1">
         <v>5</v>
@@ -2748,7 +2750,7 @@
         <v>5</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D103" s="1">
         <v>6</v>
@@ -2769,7 +2771,7 @@
         <v>5</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D104" s="1">
         <v>1</v>
@@ -2790,7 +2792,7 @@
         <v>5</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D105" s="1">
         <v>2</v>
@@ -2811,7 +2813,7 @@
         <v>5</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D106" s="1">
         <v>3</v>
@@ -2832,7 +2834,7 @@
         <v>5</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D107" s="1">
         <v>4</v>
@@ -2853,7 +2855,7 @@
         <v>5</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D108" s="1">
         <v>5</v>
@@ -2874,7 +2876,7 @@
         <v>5</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D109" s="1">
         <v>6</v>
@@ -2895,7 +2897,7 @@
         <v>5</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D110" s="1">
         <v>1</v>
@@ -2916,7 +2918,7 @@
         <v>5</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D111" s="1">
         <v>2</v>
@@ -2937,7 +2939,7 @@
         <v>5</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D112" s="1">
         <v>3</v>
@@ -2958,7 +2960,7 @@
         <v>5</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D113" s="1">
         <v>4</v>
@@ -2979,7 +2981,7 @@
         <v>5</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D114" s="1">
         <v>5</v>
@@ -3000,7 +3002,7 @@
         <v>5</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D115" s="1">
         <v>6</v>
@@ -3021,7 +3023,7 @@
         <v>5</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D116" s="1">
         <v>1</v>
@@ -3042,7 +3044,7 @@
         <v>5</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D117" s="1">
         <v>2</v>
@@ -3063,7 +3065,7 @@
         <v>5</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D118" s="1">
         <v>3</v>
@@ -3084,7 +3086,7 @@
         <v>5</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D119" s="1">
         <v>4</v>
@@ -3105,7 +3107,7 @@
         <v>5</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D120" s="1">
         <v>5</v>
@@ -3126,7 +3128,7 @@
         <v>5</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D121" s="1">
         <v>6</v>
@@ -3147,7 +3149,7 @@
         <v>1</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D122" s="1">
         <v>1</v>
@@ -3168,7 +3170,7 @@
         <v>1</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D123" s="1">
         <v>2</v>
@@ -3189,7 +3191,7 @@
         <v>1</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D124" s="1">
         <v>3</v>
@@ -3210,7 +3212,7 @@
         <v>1</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D125" s="1">
         <v>4</v>
@@ -3231,7 +3233,7 @@
         <v>1</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D126" s="1">
         <v>5</v>
@@ -3252,7 +3254,7 @@
         <v>1</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D127" s="1">
         <v>6</v>
@@ -3273,7 +3275,7 @@
         <v>1</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D128" s="1">
         <v>1</v>
@@ -3294,7 +3296,7 @@
         <v>1</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D129" s="1">
         <v>2</v>
@@ -3315,7 +3317,7 @@
         <v>1</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D130" s="1">
         <v>3</v>
@@ -3336,7 +3338,7 @@
         <v>1</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D131" s="1">
         <v>4</v>
@@ -3357,7 +3359,7 @@
         <v>1</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D132" s="1">
         <v>5</v>
@@ -3378,7 +3380,7 @@
         <v>1</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D133" s="1">
         <v>6</v>
@@ -3399,7 +3401,7 @@
         <v>1</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D134" s="1">
         <v>1</v>
@@ -3420,7 +3422,7 @@
         <v>1</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D135" s="1">
         <v>2</v>
@@ -3441,7 +3443,7 @@
         <v>1</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D136" s="1">
         <v>3</v>
@@ -3462,7 +3464,7 @@
         <v>1</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D137" s="1">
         <v>4</v>
@@ -3483,7 +3485,7 @@
         <v>1</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D138" s="1">
         <v>5</v>
@@ -3504,7 +3506,7 @@
         <v>1</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D139" s="1">
         <v>6</v>
@@ -3525,7 +3527,7 @@
         <v>1</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D140" s="1">
         <v>1</v>
@@ -3546,7 +3548,7 @@
         <v>1</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D141" s="1">
         <v>2</v>
@@ -3567,7 +3569,7 @@
         <v>1</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D142" s="1">
         <v>3</v>
@@ -3588,7 +3590,7 @@
         <v>1</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D143" s="1">
         <v>4</v>
@@ -3609,7 +3611,7 @@
         <v>1</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D144" s="1">
         <v>5</v>
@@ -3630,7 +3632,7 @@
         <v>1</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D145" s="1">
         <v>6</v>
@@ -3651,7 +3653,7 @@
         <v>2</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D146" s="1">
         <v>1</v>
@@ -3672,7 +3674,7 @@
         <v>2</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D147" s="1">
         <v>2</v>
@@ -3693,7 +3695,7 @@
         <v>2</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D148" s="1">
         <v>3</v>
@@ -3714,7 +3716,7 @@
         <v>2</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D149" s="1">
         <v>4</v>
@@ -3735,7 +3737,7 @@
         <v>2</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D150" s="1">
         <v>5</v>
@@ -3756,7 +3758,7 @@
         <v>2</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D151" s="1">
         <v>6</v>
@@ -3777,7 +3779,7 @@
         <v>2</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D152" s="1">
         <v>1</v>
@@ -3798,7 +3800,7 @@
         <v>2</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D153" s="1">
         <v>2</v>
@@ -3819,7 +3821,7 @@
         <v>2</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D154" s="1">
         <v>3</v>
@@ -3840,7 +3842,7 @@
         <v>2</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D155" s="1">
         <v>4</v>
@@ -3861,7 +3863,7 @@
         <v>2</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D156" s="1">
         <v>5</v>
@@ -3882,7 +3884,7 @@
         <v>2</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D157" s="1">
         <v>6</v>
@@ -3903,7 +3905,7 @@
         <v>2</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D158" s="1">
         <v>1</v>
@@ -3924,7 +3926,7 @@
         <v>2</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D159" s="1">
         <v>2</v>
@@ -3945,7 +3947,7 @@
         <v>2</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D160" s="1">
         <v>3</v>
@@ -3966,7 +3968,7 @@
         <v>2</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D161" s="1">
         <v>4</v>
@@ -3987,7 +3989,7 @@
         <v>2</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D162" s="1">
         <v>5</v>
@@ -4008,7 +4010,7 @@
         <v>2</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D163" s="1">
         <v>6</v>
@@ -4029,7 +4031,7 @@
         <v>2</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D164" s="1">
         <v>1</v>
@@ -4050,7 +4052,7 @@
         <v>2</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D165" s="1">
         <v>2</v>
@@ -4071,7 +4073,7 @@
         <v>2</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D166" s="1">
         <v>3</v>
@@ -4092,7 +4094,7 @@
         <v>2</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D167" s="1">
         <v>4</v>
@@ -4113,7 +4115,7 @@
         <v>2</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D168" s="1">
         <v>5</v>
@@ -4134,7 +4136,7 @@
         <v>2</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D169" s="1">
         <v>6</v>
@@ -4155,7 +4157,7 @@
         <v>3</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D170" s="1">
         <v>1</v>
@@ -4176,7 +4178,7 @@
         <v>3</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D171" s="1">
         <v>2</v>
@@ -4197,7 +4199,7 @@
         <v>3</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D172" s="1">
         <v>3</v>
@@ -4218,7 +4220,7 @@
         <v>3</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D173" s="1">
         <v>4</v>
@@ -4239,7 +4241,7 @@
         <v>3</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D174" s="1">
         <v>5</v>
@@ -4260,7 +4262,7 @@
         <v>3</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D175" s="1">
         <v>6</v>
@@ -4281,7 +4283,7 @@
         <v>3</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D176" s="1">
         <v>1</v>
@@ -4302,7 +4304,7 @@
         <v>3</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D177" s="1">
         <v>2</v>
@@ -4323,7 +4325,7 @@
         <v>3</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D178" s="1">
         <v>3</v>
@@ -4344,7 +4346,7 @@
         <v>3</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D179" s="1">
         <v>4</v>
@@ -4365,7 +4367,7 @@
         <v>3</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D180" s="1">
         <v>5</v>
@@ -4386,7 +4388,7 @@
         <v>3</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D181" s="1">
         <v>6</v>
@@ -4407,7 +4409,7 @@
         <v>3</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D182" s="1">
         <v>1</v>
@@ -4428,7 +4430,7 @@
         <v>3</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D183" s="1">
         <v>2</v>
@@ -4449,7 +4451,7 @@
         <v>3</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D184" s="1">
         <v>3</v>
@@ -4470,7 +4472,7 @@
         <v>3</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D185" s="1">
         <v>4</v>
@@ -4491,7 +4493,7 @@
         <v>3</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D186" s="1">
         <v>5</v>
@@ -4512,7 +4514,7 @@
         <v>3</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D187" s="1">
         <v>6</v>
@@ -4533,7 +4535,7 @@
         <v>3</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D188" s="1">
         <v>1</v>
@@ -4554,7 +4556,7 @@
         <v>3</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D189" s="1">
         <v>2</v>
@@ -4575,7 +4577,7 @@
         <v>3</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D190" s="1">
         <v>3</v>
@@ -4596,7 +4598,7 @@
         <v>3</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D191" s="1">
         <v>4</v>
@@ -4617,7 +4619,7 @@
         <v>3</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D192" s="1">
         <v>5</v>
@@ -4638,7 +4640,7 @@
         <v>3</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D193" s="1">
         <v>6</v>
@@ -4659,7 +4661,7 @@
         <v>4</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D194" s="1">
         <v>1</v>
@@ -4680,7 +4682,7 @@
         <v>4</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D195" s="1">
         <v>2</v>
@@ -4701,7 +4703,7 @@
         <v>4</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D196" s="1">
         <v>3</v>
@@ -4722,7 +4724,7 @@
         <v>4</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D197" s="1">
         <v>4</v>
@@ -4743,7 +4745,7 @@
         <v>4</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D198" s="1">
         <v>5</v>
@@ -4764,7 +4766,7 @@
         <v>4</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D199" s="1">
         <v>6</v>
@@ -4785,7 +4787,7 @@
         <v>4</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D200" s="1">
         <v>1</v>
@@ -4806,7 +4808,7 @@
         <v>4</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D201" s="1">
         <v>2</v>
@@ -4827,7 +4829,7 @@
         <v>4</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D202" s="1">
         <v>3</v>
@@ -4848,7 +4850,7 @@
         <v>4</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D203" s="1">
         <v>4</v>
@@ -4869,7 +4871,7 @@
         <v>4</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D204" s="1">
         <v>5</v>
@@ -4890,7 +4892,7 @@
         <v>4</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D205" s="1">
         <v>6</v>
@@ -4911,7 +4913,7 @@
         <v>4</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D206" s="1">
         <v>1</v>
@@ -4932,7 +4934,7 @@
         <v>4</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D207" s="1">
         <v>2</v>
@@ -4953,7 +4955,7 @@
         <v>4</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D208" s="1">
         <v>3</v>
@@ -4974,7 +4976,7 @@
         <v>4</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D209" s="1">
         <v>4</v>
@@ -4995,7 +4997,7 @@
         <v>4</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D210" s="1">
         <v>5</v>
@@ -5016,7 +5018,7 @@
         <v>4</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D211" s="1">
         <v>6</v>
@@ -5037,7 +5039,7 @@
         <v>4</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D212" s="1">
         <v>1</v>
@@ -5058,7 +5060,7 @@
         <v>4</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D213" s="1">
         <v>2</v>
@@ -5079,7 +5081,7 @@
         <v>4</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D214" s="1">
         <v>3</v>
@@ -5100,7 +5102,7 @@
         <v>4</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D215" s="1">
         <v>4</v>
@@ -5121,7 +5123,7 @@
         <v>4</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D216" s="1">
         <v>5</v>
@@ -5142,7 +5144,7 @@
         <v>4</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D217" s="1">
         <v>6</v>
@@ -5163,7 +5165,7 @@
         <v>5</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D218" s="1">
         <v>1</v>
@@ -5184,7 +5186,7 @@
         <v>5</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D219" s="1">
         <v>2</v>
@@ -5205,7 +5207,7 @@
         <v>5</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D220" s="1">
         <v>3</v>
@@ -5226,7 +5228,7 @@
         <v>5</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D221" s="1">
         <v>4</v>
@@ -5247,7 +5249,7 @@
         <v>5</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D222" s="1">
         <v>5</v>
@@ -5268,7 +5270,7 @@
         <v>5</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D223" s="1">
         <v>6</v>
@@ -5289,7 +5291,7 @@
         <v>5</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D224" s="1">
         <v>1</v>
@@ -5310,7 +5312,7 @@
         <v>5</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D225" s="1">
         <v>2</v>
@@ -5331,7 +5333,7 @@
         <v>5</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D226" s="1">
         <v>3</v>
@@ -5352,7 +5354,7 @@
         <v>5</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D227" s="1">
         <v>4</v>
@@ -5373,7 +5375,7 @@
         <v>5</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D228" s="1">
         <v>5</v>
@@ -5394,7 +5396,7 @@
         <v>5</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D229" s="1">
         <v>6</v>
@@ -5415,7 +5417,7 @@
         <v>5</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D230" s="1">
         <v>1</v>
@@ -5436,7 +5438,7 @@
         <v>5</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D231" s="1">
         <v>2</v>
@@ -5457,7 +5459,7 @@
         <v>5</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D232" s="1">
         <v>3</v>
@@ -5478,7 +5480,7 @@
         <v>5</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D233" s="1">
         <v>4</v>
@@ -5499,7 +5501,7 @@
         <v>5</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D234" s="1">
         <v>5</v>
@@ -5520,7 +5522,7 @@
         <v>5</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D235" s="1">
         <v>6</v>
@@ -5541,7 +5543,7 @@
         <v>5</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D236" s="1">
         <v>1</v>
@@ -5562,7 +5564,7 @@
         <v>5</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D237" s="1">
         <v>2</v>
@@ -5583,7 +5585,7 @@
         <v>5</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D238" s="1">
         <v>3</v>
@@ -5604,7 +5606,7 @@
         <v>5</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D239" s="1">
         <v>4</v>
@@ -5625,7 +5627,7 @@
         <v>5</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D240" s="1">
         <v>5</v>
@@ -5646,7 +5648,7 @@
         <v>5</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D241" s="1">
         <v>6</v>
@@ -5667,7 +5669,7 @@
         <v>1</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D242" s="1">
         <v>1</v>
@@ -5679,7 +5681,7 @@
         <v>12</v>
       </c>
       <c r="G242" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.35">
@@ -5690,7 +5692,7 @@
         <v>1</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D243" s="1">
         <v>2</v>
@@ -5711,7 +5713,7 @@
         <v>1</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D244" s="1">
         <v>3</v>
@@ -5732,7 +5734,7 @@
         <v>1</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D245" s="1">
         <v>4</v>
@@ -5753,7 +5755,7 @@
         <v>1</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D246" s="1">
         <v>5</v>
@@ -5774,7 +5776,7 @@
         <v>1</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D247" s="1">
         <v>6</v>
@@ -5795,7 +5797,7 @@
         <v>1</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D248" s="1">
         <v>1</v>
@@ -5816,7 +5818,7 @@
         <v>1</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D249" s="1">
         <v>2</v>
@@ -5837,7 +5839,7 @@
         <v>1</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D250" s="1">
         <v>3</v>
@@ -5858,7 +5860,7 @@
         <v>1</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D251" s="1">
         <v>4</v>
@@ -5879,7 +5881,7 @@
         <v>1</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D252" s="1">
         <v>5</v>
@@ -5900,7 +5902,7 @@
         <v>1</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D253" s="1">
         <v>6</v>
@@ -5921,7 +5923,7 @@
         <v>1</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D254" s="1">
         <v>1</v>
@@ -5942,7 +5944,7 @@
         <v>1</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D255" s="1">
         <v>2</v>
@@ -5963,7 +5965,7 @@
         <v>1</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D256" s="1">
         <v>3</v>
@@ -5984,7 +5986,7 @@
         <v>1</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D257" s="1">
         <v>4</v>
@@ -6005,7 +6007,7 @@
         <v>1</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D258" s="1">
         <v>5</v>
@@ -6026,7 +6028,7 @@
         <v>1</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D259" s="1">
         <v>6</v>
@@ -6047,7 +6049,7 @@
         <v>1</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D260" s="1">
         <v>1</v>
@@ -6068,7 +6070,7 @@
         <v>1</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D261" s="1">
         <v>2</v>
@@ -6089,7 +6091,7 @@
         <v>1</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D262" s="1">
         <v>3</v>
@@ -6110,7 +6112,7 @@
         <v>1</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D263" s="1">
         <v>4</v>
@@ -6131,7 +6133,7 @@
         <v>1</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D264" s="1">
         <v>5</v>
@@ -6152,7 +6154,7 @@
         <v>1</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D265" s="1">
         <v>6</v>
@@ -6173,7 +6175,7 @@
         <v>2</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D266" s="1">
         <v>1</v>
@@ -6194,7 +6196,7 @@
         <v>2</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D267" s="1">
         <v>2</v>
@@ -6215,7 +6217,7 @@
         <v>2</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D268" s="1">
         <v>3</v>
@@ -6236,7 +6238,7 @@
         <v>2</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D269" s="1">
         <v>4</v>
@@ -6257,7 +6259,7 @@
         <v>2</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D270" s="1">
         <v>5</v>
@@ -6278,7 +6280,7 @@
         <v>2</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D271" s="1">
         <v>6</v>
@@ -6299,7 +6301,7 @@
         <v>2</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D272" s="1">
         <v>1</v>
@@ -6320,7 +6322,7 @@
         <v>2</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D273" s="1">
         <v>2</v>
@@ -6341,7 +6343,7 @@
         <v>2</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D274" s="1">
         <v>3</v>
@@ -6362,7 +6364,7 @@
         <v>2</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D275" s="1">
         <v>4</v>
@@ -6383,7 +6385,7 @@
         <v>2</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D276" s="1">
         <v>5</v>
@@ -6404,7 +6406,7 @@
         <v>2</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D277" s="1">
         <v>6</v>
@@ -6425,7 +6427,7 @@
         <v>2</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D278" s="1">
         <v>1</v>
@@ -6446,7 +6448,7 @@
         <v>2</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D279" s="1">
         <v>2</v>
@@ -6467,7 +6469,7 @@
         <v>2</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D280" s="1">
         <v>3</v>
@@ -6488,7 +6490,7 @@
         <v>2</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D281" s="1">
         <v>4</v>
@@ -6509,7 +6511,7 @@
         <v>2</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D282" s="1">
         <v>5</v>
@@ -6530,7 +6532,7 @@
         <v>2</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D283" s="1">
         <v>6</v>
@@ -6551,7 +6553,7 @@
         <v>2</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D284" s="1">
         <v>1</v>
@@ -6572,7 +6574,7 @@
         <v>2</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D285" s="1">
         <v>2</v>
@@ -6593,7 +6595,7 @@
         <v>2</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D286" s="1">
         <v>3</v>
@@ -6614,7 +6616,7 @@
         <v>2</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D287" s="1">
         <v>4</v>
@@ -6635,7 +6637,7 @@
         <v>2</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D288" s="1">
         <v>5</v>
@@ -6656,7 +6658,7 @@
         <v>2</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D289" s="1">
         <v>6</v>
@@ -6677,7 +6679,7 @@
         <v>3</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D290" s="1">
         <v>1</v>
@@ -6698,7 +6700,7 @@
         <v>3</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D291" s="1">
         <v>2</v>
@@ -6719,7 +6721,7 @@
         <v>3</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D292" s="1">
         <v>3</v>
@@ -6740,7 +6742,7 @@
         <v>3</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D293" s="1">
         <v>4</v>
@@ -6761,7 +6763,7 @@
         <v>3</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D294" s="1">
         <v>5</v>
@@ -6782,7 +6784,7 @@
         <v>3</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D295" s="1">
         <v>6</v>
@@ -6803,7 +6805,7 @@
         <v>3</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D296" s="1">
         <v>1</v>
@@ -6824,7 +6826,7 @@
         <v>3</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D297" s="1">
         <v>2</v>
@@ -6845,7 +6847,7 @@
         <v>3</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D298" s="1">
         <v>3</v>
@@ -6866,7 +6868,7 @@
         <v>3</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D299" s="1">
         <v>4</v>
@@ -6887,7 +6889,7 @@
         <v>3</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D300" s="1">
         <v>5</v>
@@ -6908,7 +6910,7 @@
         <v>3</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D301" s="1">
         <v>6</v>
@@ -6929,7 +6931,7 @@
         <v>3</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D302" s="1">
         <v>1</v>
@@ -6950,7 +6952,7 @@
         <v>3</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D303" s="1">
         <v>2</v>
@@ -6971,7 +6973,7 @@
         <v>3</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D304" s="1">
         <v>3</v>
@@ -6992,7 +6994,7 @@
         <v>3</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D305" s="1">
         <v>4</v>
@@ -7013,7 +7015,7 @@
         <v>3</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D306" s="1">
         <v>5</v>
@@ -7034,7 +7036,7 @@
         <v>3</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D307" s="1">
         <v>6</v>
@@ -7055,7 +7057,7 @@
         <v>3</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D308" s="1">
         <v>1</v>
@@ -7076,7 +7078,7 @@
         <v>3</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D309" s="1">
         <v>2</v>
@@ -7097,7 +7099,7 @@
         <v>3</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D310" s="1">
         <v>3</v>
@@ -7118,7 +7120,7 @@
         <v>3</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D311" s="1">
         <v>4</v>
@@ -7139,7 +7141,7 @@
         <v>3</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D312" s="1">
         <v>5</v>
@@ -7160,7 +7162,7 @@
         <v>3</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D313" s="1">
         <v>6</v>
@@ -7181,7 +7183,7 @@
         <v>4</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D314" s="1">
         <v>1</v>
@@ -7202,7 +7204,7 @@
         <v>4</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D315" s="1">
         <v>2</v>
@@ -7223,7 +7225,7 @@
         <v>4</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D316" s="1">
         <v>3</v>
@@ -7244,7 +7246,7 @@
         <v>4</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D317" s="1">
         <v>4</v>
@@ -7265,7 +7267,7 @@
         <v>4</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D318" s="1">
         <v>5</v>
@@ -7286,7 +7288,7 @@
         <v>4</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D319" s="1">
         <v>6</v>
@@ -7307,7 +7309,7 @@
         <v>4</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D320" s="1">
         <v>1</v>
@@ -7328,7 +7330,7 @@
         <v>4</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D321" s="1">
         <v>2</v>
@@ -7349,7 +7351,7 @@
         <v>4</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D322" s="1">
         <v>3</v>
@@ -7370,7 +7372,7 @@
         <v>4</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D323" s="1">
         <v>4</v>
@@ -7391,7 +7393,7 @@
         <v>4</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D324" s="1">
         <v>5</v>
@@ -7412,7 +7414,7 @@
         <v>4</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D325" s="1">
         <v>6</v>
@@ -7433,7 +7435,7 @@
         <v>4</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D326" s="1">
         <v>1</v>
@@ -7454,7 +7456,7 @@
         <v>4</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D327" s="1">
         <v>2</v>
@@ -7475,7 +7477,7 @@
         <v>4</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D328" s="1">
         <v>3</v>
@@ -7496,7 +7498,7 @@
         <v>4</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D329" s="1">
         <v>4</v>
@@ -7517,7 +7519,7 @@
         <v>4</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D330" s="1">
         <v>5</v>
@@ -7538,7 +7540,7 @@
         <v>4</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D331" s="1">
         <v>6</v>
@@ -7559,7 +7561,7 @@
         <v>4</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D332" s="1">
         <v>1</v>
@@ -7580,7 +7582,7 @@
         <v>4</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D333" s="1">
         <v>2</v>
@@ -7601,7 +7603,7 @@
         <v>4</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D334" s="1">
         <v>3</v>
@@ -7622,7 +7624,7 @@
         <v>4</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D335" s="1">
         <v>4</v>
@@ -7643,7 +7645,7 @@
         <v>4</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D336" s="1">
         <v>5</v>
@@ -7664,7 +7666,7 @@
         <v>4</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D337" s="1">
         <v>6</v>
@@ -7685,7 +7687,7 @@
         <v>5</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D338" s="1">
         <v>1</v>
@@ -7706,7 +7708,7 @@
         <v>5</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D339" s="1">
         <v>2</v>
@@ -7727,7 +7729,7 @@
         <v>5</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D340" s="1">
         <v>3</v>
@@ -7748,7 +7750,7 @@
         <v>5</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D341" s="1">
         <v>4</v>
@@ -7769,7 +7771,7 @@
         <v>5</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D342" s="1">
         <v>5</v>
@@ -7790,7 +7792,7 @@
         <v>5</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D343" s="1">
         <v>6</v>
@@ -7811,7 +7813,7 @@
         <v>5</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D344" s="1">
         <v>1</v>
@@ -7832,7 +7834,7 @@
         <v>5</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D345" s="1">
         <v>2</v>
@@ -7853,7 +7855,7 @@
         <v>5</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D346" s="1">
         <v>3</v>
@@ -7874,7 +7876,7 @@
         <v>5</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D347" s="1">
         <v>4</v>
@@ -7895,7 +7897,7 @@
         <v>5</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D348" s="1">
         <v>5</v>
@@ -7916,7 +7918,7 @@
         <v>5</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D349" s="1">
         <v>6</v>
@@ -7937,7 +7939,7 @@
         <v>5</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D350" s="1">
         <v>1</v>
@@ -7958,7 +7960,7 @@
         <v>5</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D351" s="1">
         <v>2</v>
@@ -7979,7 +7981,7 @@
         <v>5</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D352" s="1">
         <v>3</v>
@@ -8000,7 +8002,7 @@
         <v>5</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D353" s="1">
         <v>4</v>
@@ -8021,7 +8023,7 @@
         <v>5</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D354" s="1">
         <v>5</v>
@@ -8042,7 +8044,7 @@
         <v>5</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D355" s="1">
         <v>6</v>
@@ -8063,7 +8065,7 @@
         <v>5</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D356" s="1">
         <v>1</v>
@@ -8084,7 +8086,7 @@
         <v>5</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D357" s="1">
         <v>2</v>
@@ -8105,7 +8107,7 @@
         <v>5</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D358" s="1">
         <v>3</v>
@@ -8126,7 +8128,7 @@
         <v>5</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D359" s="1">
         <v>4</v>
@@ -8147,7 +8149,7 @@
         <v>5</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D360" s="1">
         <v>5</v>
@@ -8168,7 +8170,7 @@
         <v>5</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D361" s="1">
         <v>6</v>
@@ -8189,7 +8191,7 @@
         <v>1</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D362" s="1">
         <v>1</v>
@@ -8201,7 +8203,7 @@
         <v>27</v>
       </c>
       <c r="G362" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.35">
@@ -8212,7 +8214,7 @@
         <v>1</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D363" s="1">
         <v>2</v>
@@ -8224,7 +8226,7 @@
         <v>36</v>
       </c>
       <c r="G363" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.35">
@@ -8235,7 +8237,7 @@
         <v>1</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D364" s="1">
         <v>3</v>
@@ -8256,7 +8258,7 @@
         <v>1</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D365" s="1">
         <v>4</v>
@@ -8277,7 +8279,7 @@
         <v>1</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D366" s="1">
         <v>5</v>
@@ -8298,7 +8300,7 @@
         <v>1</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D367" s="1">
         <v>6</v>
@@ -8319,7 +8321,7 @@
         <v>1</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D368" s="1">
         <v>1</v>
@@ -8340,7 +8342,7 @@
         <v>1</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D369" s="1">
         <v>2</v>
@@ -8361,7 +8363,7 @@
         <v>1</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D370" s="1">
         <v>3</v>
@@ -8382,7 +8384,7 @@
         <v>1</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D371" s="1">
         <v>4</v>
@@ -8403,7 +8405,7 @@
         <v>1</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D372" s="1">
         <v>5</v>
@@ -8424,7 +8426,7 @@
         <v>1</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D373" s="1">
         <v>6</v>
@@ -8445,7 +8447,7 @@
         <v>1</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D374" s="1">
         <v>1</v>
@@ -8466,7 +8468,7 @@
         <v>1</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D375" s="1">
         <v>2</v>
@@ -8487,7 +8489,7 @@
         <v>1</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D376" s="1">
         <v>3</v>
@@ -8508,7 +8510,7 @@
         <v>1</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D377" s="1">
         <v>4</v>
@@ -8529,7 +8531,7 @@
         <v>1</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D378" s="1">
         <v>5</v>
@@ -8550,7 +8552,7 @@
         <v>1</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D379" s="1">
         <v>6</v>
@@ -8571,7 +8573,7 @@
         <v>1</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D380" s="1">
         <v>1</v>
@@ -8592,7 +8594,7 @@
         <v>1</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D381" s="1">
         <v>2</v>
@@ -8613,7 +8615,7 @@
         <v>1</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D382" s="1">
         <v>3</v>
@@ -8634,7 +8636,7 @@
         <v>1</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D383" s="1">
         <v>4</v>
@@ -8655,7 +8657,7 @@
         <v>1</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D384" s="1">
         <v>5</v>
@@ -8676,7 +8678,7 @@
         <v>1</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D385" s="1">
         <v>6</v>
@@ -8697,7 +8699,7 @@
         <v>2</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D386" s="1">
         <v>1</v>
@@ -8718,7 +8720,7 @@
         <v>2</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D387" s="1">
         <v>2</v>
@@ -8739,7 +8741,7 @@
         <v>2</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D388" s="1">
         <v>3</v>
@@ -8760,7 +8762,7 @@
         <v>2</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D389" s="1">
         <v>4</v>
@@ -8781,7 +8783,7 @@
         <v>2</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D390" s="1">
         <v>5</v>
@@ -8802,7 +8804,7 @@
         <v>2</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D391" s="1">
         <v>6</v>
@@ -8823,7 +8825,7 @@
         <v>2</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D392" s="1">
         <v>1</v>
@@ -8844,7 +8846,7 @@
         <v>2</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D393" s="1">
         <v>2</v>
@@ -8865,7 +8867,7 @@
         <v>2</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D394" s="1">
         <v>3</v>
@@ -8886,7 +8888,7 @@
         <v>2</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D395" s="1">
         <v>4</v>
@@ -8907,7 +8909,7 @@
         <v>2</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D396" s="1">
         <v>5</v>
@@ -8928,7 +8930,7 @@
         <v>2</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D397" s="1">
         <v>6</v>
@@ -8949,7 +8951,7 @@
         <v>2</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D398" s="1">
         <v>1</v>
@@ -8970,7 +8972,7 @@
         <v>2</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D399" s="1">
         <v>2</v>
@@ -8991,7 +8993,7 @@
         <v>2</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D400" s="1">
         <v>3</v>
@@ -9012,7 +9014,7 @@
         <v>2</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D401" s="1">
         <v>4</v>
@@ -9033,7 +9035,7 @@
         <v>2</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D402" s="1">
         <v>5</v>
@@ -9054,7 +9056,7 @@
         <v>2</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D403" s="1">
         <v>6</v>
@@ -9075,7 +9077,7 @@
         <v>2</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D404" s="1">
         <v>1</v>
@@ -9096,7 +9098,7 @@
         <v>2</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D405" s="1">
         <v>2</v>
@@ -9117,7 +9119,7 @@
         <v>2</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D406" s="1">
         <v>3</v>
@@ -9138,7 +9140,7 @@
         <v>2</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D407" s="1">
         <v>4</v>
@@ -9159,7 +9161,7 @@
         <v>2</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D408" s="1">
         <v>5</v>
@@ -9180,7 +9182,7 @@
         <v>2</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D409" s="1">
         <v>6</v>
@@ -9201,7 +9203,7 @@
         <v>3</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D410" s="1">
         <v>1</v>
@@ -9222,7 +9224,7 @@
         <v>3</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D411" s="1">
         <v>2</v>
@@ -9243,7 +9245,7 @@
         <v>3</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D412" s="1">
         <v>3</v>
@@ -9264,7 +9266,7 @@
         <v>3</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D413" s="1">
         <v>4</v>
@@ -9285,7 +9287,7 @@
         <v>3</v>
       </c>
       <c r="C414" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D414" s="1">
         <v>5</v>
@@ -9306,7 +9308,7 @@
         <v>3</v>
       </c>
       <c r="C415" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D415" s="1">
         <v>6</v>
@@ -9327,7 +9329,7 @@
         <v>3</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D416" s="1">
         <v>1</v>
@@ -9348,7 +9350,7 @@
         <v>3</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D417" s="1">
         <v>2</v>
@@ -9369,7 +9371,7 @@
         <v>3</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D418" s="1">
         <v>3</v>
@@ -9390,7 +9392,7 @@
         <v>3</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D419" s="1">
         <v>4</v>
@@ -9411,7 +9413,7 @@
         <v>3</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D420" s="1">
         <v>5</v>
@@ -9432,7 +9434,7 @@
         <v>3</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D421" s="1">
         <v>6</v>
@@ -9453,7 +9455,7 @@
         <v>3</v>
       </c>
       <c r="C422" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D422" s="1">
         <v>1</v>
@@ -9474,7 +9476,7 @@
         <v>3</v>
       </c>
       <c r="C423" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D423" s="1">
         <v>2</v>
@@ -9495,7 +9497,7 @@
         <v>3</v>
       </c>
       <c r="C424" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D424" s="1">
         <v>3</v>
@@ -9516,7 +9518,7 @@
         <v>3</v>
       </c>
       <c r="C425" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D425" s="1">
         <v>4</v>
@@ -9537,7 +9539,7 @@
         <v>3</v>
       </c>
       <c r="C426" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D426" s="1">
         <v>5</v>
@@ -9558,7 +9560,7 @@
         <v>3</v>
       </c>
       <c r="C427" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D427" s="1">
         <v>6</v>
@@ -9579,7 +9581,7 @@
         <v>3</v>
       </c>
       <c r="C428" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D428" s="1">
         <v>1</v>
@@ -9600,7 +9602,7 @@
         <v>3</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D429" s="1">
         <v>2</v>
@@ -9621,7 +9623,7 @@
         <v>3</v>
       </c>
       <c r="C430" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D430" s="1">
         <v>3</v>
@@ -9642,7 +9644,7 @@
         <v>3</v>
       </c>
       <c r="C431" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D431" s="1">
         <v>4</v>
@@ -9663,7 +9665,7 @@
         <v>3</v>
       </c>
       <c r="C432" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D432" s="1">
         <v>5</v>
@@ -9684,7 +9686,7 @@
         <v>3</v>
       </c>
       <c r="C433" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D433" s="1">
         <v>6</v>
@@ -9705,7 +9707,7 @@
         <v>4</v>
       </c>
       <c r="C434" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D434" s="1">
         <v>1</v>
@@ -9726,7 +9728,7 @@
         <v>4</v>
       </c>
       <c r="C435" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D435" s="1">
         <v>2</v>
@@ -9747,7 +9749,7 @@
         <v>4</v>
       </c>
       <c r="C436" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D436" s="1">
         <v>3</v>
@@ -9768,7 +9770,7 @@
         <v>4</v>
       </c>
       <c r="C437" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D437" s="1">
         <v>4</v>
@@ -9789,7 +9791,7 @@
         <v>4</v>
       </c>
       <c r="C438" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D438" s="1">
         <v>5</v>
@@ -9810,7 +9812,7 @@
         <v>4</v>
       </c>
       <c r="C439" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D439" s="1">
         <v>6</v>
@@ -9831,7 +9833,7 @@
         <v>4</v>
       </c>
       <c r="C440" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D440" s="1">
         <v>1</v>
@@ -9852,7 +9854,7 @@
         <v>4</v>
       </c>
       <c r="C441" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D441" s="1">
         <v>2</v>
@@ -9873,7 +9875,7 @@
         <v>4</v>
       </c>
       <c r="C442" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D442" s="1">
         <v>3</v>
@@ -9894,7 +9896,7 @@
         <v>4</v>
       </c>
       <c r="C443" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D443" s="1">
         <v>4</v>
@@ -9915,7 +9917,7 @@
         <v>4</v>
       </c>
       <c r="C444" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D444" s="1">
         <v>5</v>
@@ -9936,7 +9938,7 @@
         <v>4</v>
       </c>
       <c r="C445" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D445" s="1">
         <v>6</v>
@@ -9957,7 +9959,7 @@
         <v>4</v>
       </c>
       <c r="C446" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D446" s="1">
         <v>1</v>
@@ -9978,7 +9980,7 @@
         <v>4</v>
       </c>
       <c r="C447" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D447" s="1">
         <v>2</v>
@@ -9999,7 +10001,7 @@
         <v>4</v>
       </c>
       <c r="C448" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D448" s="1">
         <v>3</v>
@@ -10020,7 +10022,7 @@
         <v>4</v>
       </c>
       <c r="C449" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D449" s="1">
         <v>4</v>
@@ -10041,7 +10043,7 @@
         <v>4</v>
       </c>
       <c r="C450" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D450" s="1">
         <v>5</v>
@@ -10062,7 +10064,7 @@
         <v>4</v>
       </c>
       <c r="C451" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D451" s="1">
         <v>6</v>
@@ -10083,7 +10085,7 @@
         <v>4</v>
       </c>
       <c r="C452" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D452" s="1">
         <v>1</v>
@@ -10104,7 +10106,7 @@
         <v>4</v>
       </c>
       <c r="C453" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D453" s="1">
         <v>2</v>
@@ -10125,7 +10127,7 @@
         <v>4</v>
       </c>
       <c r="C454" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D454" s="1">
         <v>3</v>
@@ -10146,7 +10148,7 @@
         <v>4</v>
       </c>
       <c r="C455" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D455" s="1">
         <v>4</v>
@@ -10167,7 +10169,7 @@
         <v>4</v>
       </c>
       <c r="C456" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D456" s="1">
         <v>5</v>
@@ -10188,7 +10190,7 @@
         <v>4</v>
       </c>
       <c r="C457" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D457" s="1">
         <v>6</v>
@@ -10209,7 +10211,7 @@
         <v>5</v>
       </c>
       <c r="C458" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D458" s="1">
         <v>1</v>
@@ -10230,7 +10232,7 @@
         <v>5</v>
       </c>
       <c r="C459" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D459" s="1">
         <v>2</v>
@@ -10251,7 +10253,7 @@
         <v>5</v>
       </c>
       <c r="C460" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D460" s="1">
         <v>3</v>
@@ -10272,7 +10274,7 @@
         <v>5</v>
       </c>
       <c r="C461" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D461" s="1">
         <v>4</v>
@@ -10293,7 +10295,7 @@
         <v>5</v>
       </c>
       <c r="C462" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D462" s="1">
         <v>5</v>
@@ -10314,7 +10316,7 @@
         <v>5</v>
       </c>
       <c r="C463" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D463" s="1">
         <v>6</v>
@@ -10335,7 +10337,7 @@
         <v>5</v>
       </c>
       <c r="C464" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D464" s="1">
         <v>1</v>
@@ -10356,7 +10358,7 @@
         <v>5</v>
       </c>
       <c r="C465" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D465" s="1">
         <v>2</v>
@@ -10377,7 +10379,7 @@
         <v>5</v>
       </c>
       <c r="C466" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D466" s="1">
         <v>3</v>
@@ -10398,7 +10400,7 @@
         <v>5</v>
       </c>
       <c r="C467" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D467" s="1">
         <v>4</v>
@@ -10419,7 +10421,7 @@
         <v>5</v>
       </c>
       <c r="C468" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D468" s="1">
         <v>5</v>
@@ -10440,7 +10442,7 @@
         <v>5</v>
       </c>
       <c r="C469" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D469" s="1">
         <v>6</v>
@@ -10461,7 +10463,7 @@
         <v>5</v>
       </c>
       <c r="C470" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D470" s="1">
         <v>1</v>
@@ -10482,7 +10484,7 @@
         <v>5</v>
       </c>
       <c r="C471" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D471" s="1">
         <v>2</v>
@@ -10503,7 +10505,7 @@
         <v>5</v>
       </c>
       <c r="C472" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D472" s="1">
         <v>3</v>
@@ -10524,7 +10526,7 @@
         <v>5</v>
       </c>
       <c r="C473" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D473" s="1">
         <v>4</v>
@@ -10545,7 +10547,7 @@
         <v>5</v>
       </c>
       <c r="C474" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D474" s="1">
         <v>5</v>
@@ -10566,7 +10568,7 @@
         <v>5</v>
       </c>
       <c r="C475" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D475" s="1">
         <v>6</v>
@@ -10587,7 +10589,7 @@
         <v>5</v>
       </c>
       <c r="C476" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D476" s="1">
         <v>1</v>
@@ -10608,7 +10610,7 @@
         <v>5</v>
       </c>
       <c r="C477" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D477" s="1">
         <v>2</v>
@@ -10629,7 +10631,7 @@
         <v>5</v>
       </c>
       <c r="C478" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D478" s="1">
         <v>3</v>
@@ -10650,7 +10652,7 @@
         <v>5</v>
       </c>
       <c r="C479" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D479" s="1">
         <v>4</v>
@@ -10671,7 +10673,7 @@
         <v>5</v>
       </c>
       <c r="C480" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D480" s="1">
         <v>5</v>
@@ -10692,7 +10694,7 @@
         <v>5</v>
       </c>
       <c r="C481" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D481" s="1">
         <v>6</v>
